--- a/data/publications/orcid/export_to_manual/Akademia_Pedagogiki_Specjalnej_Marii_Grzegorzewskiej_w_Warszawie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Akademia_Pedagogiki_Specjalnej_Marii_Grzegorzewskiej_w_Warszawie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,442 +436,480 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Beata Grażyna Hintze</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1899-2143</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Resources as a predictor of stigma in people with mental illness using community-based support system </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Polish Journal of Social Rehabilitation</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Beata_Grażyna_Hintze_1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Beata Grażyna Hintze</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1899-2143</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Mini-Cog as a screening tool for dementia/Skala Mini-Cog w diagnostyce przesiewowej otępień</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Current Neurology/Aktualności Neurologiczne</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Beata_Grażyna_Hintze_2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Beata Grażyna Hintze</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1899-2143</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Does hyponatraemia influence visual memory and executive functions in schizophrenia psychosis? Review and selective preliminary report,Czy hiponatremia wpływa na pamięć wzrokową i funkcje wykonawcze u chorych z psychozą schizofreniczną? Przegląd piśmiennictwa oraz wybrane wyniki badań własnych</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beata_Grażyna_Hintze_3</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Dorota Anna Jasielska</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3504-6004</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Wellbeing and sense of coherence among female offenders and non-offenders: the importance of education</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2020-12</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Prison Journal</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dorota_Anna_Jasielska_3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Dorota Anna Jasielska</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3504-6004</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>‘I Will Help but not Everybody’ – Donating to Charity in a Deficit vs. Growth Condition: The Importance of Well-Being</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Studia Psychologica</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dorota_Anna_Jasielska_5</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>48</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Dorota Anna Jasielska</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3504-6004</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Individual Differences in Happiness and Hostile Attributions In A Cross-Cultural Context.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Journal of Personality Assessment</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dorota_Anna_Jasielska_10</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>51</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Izabela Ewelina Kaźmierczak</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3959-0178</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Psychological consequences of war: Past research and new trends</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Izabela_Ewelina_Kaźmierczak_3</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>59</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Małgorzata Korko</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5648-687X</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Types of interference and their resolution in monolingual word production</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Acta Psychologica</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Małgorzata_Korko_1</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>60</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Małgorzata Korko</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5648-687X</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Pause behavior within reformulations and the proficiency level of second language learners of English</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2019-05</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Applied Psycholinguistics</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Małgorzata_Korko_2</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>68</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Ewa Odachowska-Rogalska</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-6163-8353</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Beware when danger on the road has passed. The state of relief impairs a driver’s ability to avoid accidents</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2018-06</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Accident Analysis &amp; Prevention Volume 115, June 2018, Pages 73-78</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ewa_Odachowska-Rogalska_4</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>74</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Sławomir Adam Postek</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9743-8946</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>From metaphorical information overflow and overload to real stress: theoretical background, empirical findings and applications</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>European Management Journal</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Sławomir_Adam_Postek_1</t>
         </is>

--- a/data/publications/orcid/export_to_manual/Akademia_Pedagogiki_Specjalnej_Marii_Grzegorzewskiej_w_Warszawie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Akademia_Pedagogiki_Specjalnej_Marii_Grzegorzewskiej_w_Warszawie_titles.xlsx
@@ -751,7 +751,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Izabela_Ewelina_Kaźmierczak_3</t>
+          <t>Izabela_Ewelina_Kaźmierczak_4</t>
         </is>
       </c>
     </row>
